--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H2">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I2">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J2">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>0.5043338548699999</v>
+        <v>1.025216934225778</v>
       </c>
       <c r="R2">
-        <v>4.53900469383</v>
+        <v>9.226952408032</v>
       </c>
       <c r="S2">
-        <v>0.0001007332388321083</v>
+        <v>0.0001780367565298943</v>
       </c>
       <c r="T2">
-        <v>0.0001007332388321083</v>
+        <v>0.0001780367565298943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H3">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I3">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J3">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>0.4230008463915554</v>
+        <v>0.6965221275804445</v>
       </c>
       <c r="R3">
-        <v>3.807007617523999</v>
+        <v>6.268699148224001</v>
       </c>
       <c r="S3">
-        <v>8.448817162339412E-05</v>
+        <v>0.0001209563910874831</v>
       </c>
       <c r="T3">
-        <v>8.448817162339411E-05</v>
+        <v>0.0001209563910874831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H4">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I4">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J4">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>2.659198260654</v>
+        <v>2.283302414757333</v>
       </c>
       <c r="R4">
-        <v>23.932784345886</v>
+        <v>20.549721732816</v>
       </c>
       <c r="S4">
-        <v>0.0005311355779624073</v>
+        <v>0.0003965129159783731</v>
       </c>
       <c r="T4">
-        <v>0.0005311355779624071</v>
+        <v>0.0003965129159783731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H5">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I5">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J5">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>72.4162029442721</v>
+        <v>109.4676485773316</v>
       </c>
       <c r="R5">
-        <v>651.745826498449</v>
+        <v>985.2088371959842</v>
       </c>
       <c r="S5">
-        <v>0.01446406699859583</v>
+        <v>0.01900989385468968</v>
       </c>
       <c r="T5">
-        <v>0.01446406699859583</v>
+        <v>0.01900989385468968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J6">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>30.92095407382</v>
+        <v>38.17304926973911</v>
       </c>
       <c r="R6">
-        <v>278.28858666438</v>
+        <v>343.557443427652</v>
       </c>
       <c r="S6">
-        <v>0.00617600389416182</v>
+        <v>0.006629041768581936</v>
       </c>
       <c r="T6">
-        <v>0.006176003894161817</v>
+        <v>0.006629041768581937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J7">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
-        <v>25.93438774367377</v>
+        <v>25.93438774367378</v>
       </c>
       <c r="R7">
         <v>233.409489693064</v>
       </c>
       <c r="S7">
-        <v>0.005180010918008655</v>
+        <v>0.004503704652478444</v>
       </c>
       <c r="T7">
-        <v>0.005180010918008653</v>
+        <v>0.004503704652478445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J8">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>163.036739447244</v>
+        <v>85.01675369034733</v>
       </c>
       <c r="R8">
-        <v>1467.330655025196</v>
+        <v>765.150783213126</v>
       </c>
       <c r="S8">
-        <v>0.03256418075955021</v>
+        <v>0.01476380907535519</v>
       </c>
       <c r="T8">
-        <v>0.03256418075955019</v>
+        <v>0.01476380907535519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J9">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>4439.872643523901</v>
+        <v>4075.931447367909</v>
       </c>
       <c r="R9">
-        <v>39958.85379171512</v>
+        <v>36683.38302631118</v>
       </c>
       <c r="S9">
-        <v>0.886798986555287</v>
+        <v>0.7078166488496285</v>
       </c>
       <c r="T9">
-        <v>0.8867989865552867</v>
+        <v>0.7078166488496286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H10">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I10">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J10">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>1.34305640962</v>
+        <v>12.07231368662933</v>
       </c>
       <c r="R10">
-        <v>12.08750768658</v>
+        <v>108.650823179664</v>
       </c>
       <c r="S10">
-        <v>0.0002682556817648472</v>
+        <v>0.002096449542361544</v>
       </c>
       <c r="T10">
-        <v>0.0002682556817648471</v>
+        <v>0.002096449542361544</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H11">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I11">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J11">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>1.126464131913778</v>
+        <v>8.201809132405334</v>
       </c>
       <c r="R11">
-        <v>10.138177187224</v>
+        <v>73.816282191648</v>
       </c>
       <c r="S11">
-        <v>0.0002249945732180193</v>
+        <v>0.001424306843617875</v>
       </c>
       <c r="T11">
-        <v>0.0002249945732180192</v>
+        <v>0.001424306843617875</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H12">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I12">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J12">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>7.081525925604001</v>
+        <v>26.886741793048</v>
       </c>
       <c r="R12">
-        <v>63.733733330436</v>
+        <v>241.980676137432</v>
       </c>
       <c r="S12">
-        <v>0.001414430214175312</v>
+        <v>0.004669088212150858</v>
       </c>
       <c r="T12">
-        <v>0.001414430214175311</v>
+        <v>0.004669088212150858</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H13">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I13">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J13">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N13">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q13">
-        <v>192.8465531026416</v>
+        <v>1289.022594190019</v>
       </c>
       <c r="R13">
-        <v>1735.618977923774</v>
+        <v>11601.20334771017</v>
       </c>
       <c r="S13">
-        <v>0.03851825076594277</v>
+        <v>0.2238486256927171</v>
       </c>
       <c r="T13">
-        <v>0.03851825076594276</v>
+        <v>0.2238486256927171</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H14">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N14">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O14">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P14">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q14">
-        <v>0.4543018342500001</v>
+        <v>0.7566278025842221</v>
       </c>
       <c r="R14">
-        <v>4.08871650825</v>
+        <v>6.809650223257999</v>
       </c>
       <c r="S14">
-        <v>9.074008165318655E-05</v>
+        <v>0.0001313942009494453</v>
       </c>
       <c r="T14">
-        <v>9.074008165318651E-05</v>
+        <v>0.0001313942009494453</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H15">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N15">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q15">
-        <v>0.3810373992333333</v>
+        <v>0.5140453588395556</v>
       </c>
       <c r="R15">
-        <v>3.429336593099999</v>
+        <v>4.626408229556001</v>
       </c>
       <c r="S15">
-        <v>7.610659282595775E-05</v>
+        <v>8.926790549568253E-05</v>
       </c>
       <c r="T15">
-        <v>7.610659282595772E-05</v>
+        <v>8.926790549568253E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H16">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N16">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O16">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P16">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q16">
-        <v>2.39539470885</v>
+        <v>1.685116613897667</v>
       </c>
       <c r="R16">
-        <v>21.55855237965</v>
+        <v>15.166049525079</v>
       </c>
       <c r="S16">
-        <v>0.0004784447146939073</v>
+        <v>0.000292633379626666</v>
       </c>
       <c r="T16">
-        <v>0.000478444714693907</v>
+        <v>0.000292633379626666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H17">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N17">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q17">
-        <v>65.23221375944168</v>
+        <v>80.78901511676345</v>
       </c>
       <c r="R17">
-        <v>587.089923834975</v>
+        <v>727.1011360508711</v>
       </c>
       <c r="S17">
-        <v>0.01302917126170475</v>
+        <v>0.01402962995875133</v>
       </c>
       <c r="T17">
-        <v>0.01302917126170475</v>
+        <v>0.01402962995875133</v>
       </c>
     </row>
   </sheetData>
